--- a/F_dataset/DUD-E/MP2K1/MP2K1_preprocessing/MP2K1_test.xlsx
+++ b/F_dataset/DUD-E/MP2K1/MP2K1_preprocessing/MP2K1_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E996570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA338FA70&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E996500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A80B0&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E996A40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8820&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E996B90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A89E0&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E996D50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8AC0&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E997530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8CF0&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E997760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8D60&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E995380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8E40&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E995770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A94D0&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E997060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9540&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E997140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A95B0&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E994F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9700&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9950E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A98C0&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E995310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8A50&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C13110957</t>
+          <t>C04991153</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[NH2+]=C(Nc1nc(=O)c2c([nH]1)CCCC2)Nc1ccccc1Sc1ccccc1</t>
+          <t>CNc1nc(Cl)nc2c1ncn2[C@@H]1OC[C@@H](O)[C@@H](O)[C@@H]1O</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[NH2+]=C(Nc1nc(=O)c2c([nH]1)CCCC2)Nc1ccccc1Sc1ccccc1</t>
+          <t>CNc1nc(Cl)nc2c1ncn2[C@@H]1OC[C@@H](O)[C@@H](O)[C@@H]1O</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>392.51</v>
+        <v>315.72</v>
       </c>
       <c r="H16" t="n">
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>95.40000000000001</v>
+        <v>125.55</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E997680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5150&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C65748225</t>
+          <t>C05044855</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CC1=C(/C=C/C(C)=C/C=C/C(C)=C\C(=O)O[C@H]2O[C@@H](C(=O)[O-])[C@@H](O)[C@@H](O)[C@@H]2O)C(C)(C)CCC1</t>
+          <t>CCCCc1[nH]nc2c1[C@@H](c1c[nH]c3ccccc13)C(C#N)=C(N)O2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CC1=C(/C=C/C(C)=C/C=C/C(C)=C\C(=O)O[C@H]2O[C@@H](C(=O)[O-])[C@@H](O)[C@@H](O)[C@@H]2O)C(C)(C)CCC1</t>
+          <t>CCCCc1[nH]nc2c1[C@@H](c1c[nH]c3ccccc13)C(C#N)=C(N)O2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>475.56</v>
+        <v>333.4</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>136.35</v>
+        <v>103.51</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D13F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B67A0&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D3610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4B30&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D33E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B71B0&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D3760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B7C30&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D1FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B66C0&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C09836958</t>
+          <t>C39586055</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>O=C(CSc1nnc(-c2ccccc2F)[nH]1)NC(=O)NC12CC3CC(CC(C3)C1)C2</t>
+          <t>Cc1cccc(-n2ccnc2SCC(=O)/[NH+]=C2\C=C3N=C([O-])N=C3C=C2Br)c1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>O=C(CSc1nnc(-c2ccccc2F)[nH]1)NC(=O)NC12CC3CC(CC(C3)C1)C2</t>
+          <t>Cc1cccc(-n2ccnc2SCC(=O)/[NH+]=C2\C=C3N=C([O-])N=C3C=C2Br)c1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,25 +1935,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>429.52</v>
+        <v>456.33</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
         <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>99.77</v>
+        <v>96.64</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D14D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B7F40&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D34C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B46D0&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D1700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B7A00&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C08214834</t>
+          <t>C39916083</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CC(=O)O[C@H]1C[C@@H](OC(C)=O)C(C)(C)[C@H]2C[C@@H](OC(C)=O)[C@]3(C)[C@@H](CC[C@@]4(C)[C@H](c5ccoc5)C(=O)[C@H]5O[C@@]534)[C@@]12C</t>
+          <t>CC1(C)CC(=O)C2=C(C1)N[C@H]1N[C@H](SCc3ccccc3Cl)NN1[C@H]2C1=CC=[NH+]C1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CC(=O)O[C@H]1C[C@@H](OC(C)=O)C(C)(C)[C@H]2C[C@@H](OC(C)=O)[C@]3(C)[C@@H](CC[C@@]4(C)[C@H](c5ccoc5)C(=O)[C@H]5O[C@]543)[C@@]12C</t>
+          <t>CC1(C)CC(=O)C2=C(C1)N[C@H]1N[C@H](SCc3ccccc3Cl)NN1[C@H]2C1=CC=[NH+]C1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>570.6799999999999</v>
+        <v>445.01</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
         <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>121.64</v>
+        <v>70.37</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D15B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B6500&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C39916083</t>
+          <t>C08847732</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CC1(C)CC(=O)C2=C(C1)N[C@H]1N[C@H](SCc3ccccc3Cl)NN1[C@H]2C1=CC=[NH+]C1</t>
+          <t>COc1ccc(-c2c/c(=N\Nc3ccc4ccccc4n3)c3cc(C)cc(C)c3o2)cc1OC</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CC1(C)CC(=O)C2=C(C1)N[C@H]1N[C@H](SCc3ccccc3Cl)NN1[C@H]2C1=CC=[NH+]C1</t>
+          <t>COc1ccc(-c2c/c(=N\Nc3ccc4ccccc4n3)c3cc(C)cc(C)c3o2)cc1OC</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,25 +2207,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>445.01</v>
+        <v>451.53</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
         <v>5</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>70.37</v>
+        <v>68.88</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D19A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B7DF0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C08847732</t>
+          <t>C39998951</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2c/c(=N\Nc3ccc4ccccc4n3)c3cc(C)cc(C)c3o2)cc1OC</t>
+          <t>COCCCNC(=O)/C(C#N)=C/c1c(Oc2cc(C)cc(C)c2)nc2ccc(C)cn2c1=O</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2c/c(=N\Nc3ccc4ccccc4n3)c3cc(C)cc(C)c3o2)cc1OC</t>
+          <t>COCCCNC(=O)/C(C#N)=C/c1c(Oc2cc(C)cc(C)c2)nc2ccc(C)cn2c1=O</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>451.53</v>
+        <v>446.51</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>68.88</v>
+        <v>105.72</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D3060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B49E0&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C39998951</t>
+          <t>C40303933</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>COCCCNC(=O)/C(C#N)=C/c1c(Oc2cc(C)cc(C)c2)nc2ccc(C)cn2c1=O</t>
+          <t>C[C@H]1COCCN1C(=O)c1sccc1N</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>COCCCNC(=O)/C(C#N)=C/c1c(Oc2cc(C)cc(C)c2)nc2ccc(C)cn2c1=O</t>
+          <t>C[C@H]1COCCN1C(=O)c1sccc1N</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2339,29 +2339,29 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>446.51</v>
+        <v>226.3</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>105.72</v>
+        <v>55.56</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D3CA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B6030&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C13681731</t>
+          <t>C04222474</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>C[C@]12CC[C@@H]3c4ccc(O)cc4CC[C@H]3[C@@H]1C[C@H](Cc1ccccn1)[C@@H]2O</t>
+          <t>COCC(=O)Nc1nc2c(s1)C[C@@H]1[C@](C)(CO)[C@H](O)CC[C@@]1(C)[C@@H]2CC(=O)Nc1nccs1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>C[C@]12CC[C@@H]3c4ccc(O)cc4CC[C@H]3[C@@H]1C[C@H](Cc1ccccn1)[C@@H]2O</t>
+          <t>COCC(=O)Nc1nc2c(s1)C[C@H]1[C@@](C)(CC[C@@H](O)[C@@]1(C)CO)[C@@H]2CC(=O)Nc1nccs1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2411,25 +2411,25 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>363.5</v>
+        <v>494.64</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
         <v>2</v>
       </c>
       <c r="M29" t="n">
-        <v>53.35</v>
+        <v>133.67</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D2340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B47B0&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C40303933</t>
+          <t>C00706474</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>C[C@H]1COCCN1C(=O)c1sccc1N</t>
+          <t>CC1=C(C(=O)OC2CCCCCC2)[C@@H](c2cccc3ccccc23)NC(=O)N1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>C[C@H]1COCCN1C(=O)c1sccc1N</t>
+          <t>CC1=C(C(=O)OC2CCCCCC2)[C@@H](c2cccc3ccccc23)NC(=O)N1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2479,25 +2479,25 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>226.3</v>
+        <v>378.47</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
         <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
+        <v>4</v>
+      </c>
+      <c r="L30" t="n">
         <v>2</v>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
       <c r="M30" t="n">
-        <v>55.56</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D12A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B6F10&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C40013602</t>
+          <t>CHEMBL517956</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CCCC[NH+](CCCC)CCCN1C(=O)c2oc3cc(C)c(C)cc3c(=O)c2[C@@H]1c1ccc(SC)cc1</t>
+          <t>Cc1ccc(O)cc1CC[C@@H]1[C@H](O)CC[C@]2(C)[C@@H]([C@H](C)CCCC(C)C)CC[C@@H]12</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CCCC[NH+](CCCC)CCCN1C(=O)c2oc3cc(C)c(C)cc3c(=O)c2[C@@H]1c1ccc(SC)cc1</t>
+          <t>Cc1ccc(O)cc1CC[C@H]1[C@@H]2CC[C@H]([C@H](C)CCCC(C)C)[C@@]2(C)CC[C@H]1O</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2543,40 +2543,66 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>521.75</v>
+        <v>400.65</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>54.96</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
+        <v>40.46</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>IC50</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>nM</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>48900</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>CHEMBL1926226</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Inhibition of wild type human MEK1</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D1930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B65E0&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2614,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>C04222474</t>
+          <t>CHEMBL2216825</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,12 +2622,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>COCC(=O)Nc1nc2c(s1)C[C@@H]1[C@](C)(CO)[C@H](O)CC[C@@]1(C)[C@@H]2CC(=O)Nc1nccs1</t>
+          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>COCC(=O)Nc1nc2c(s1)C[C@H]1[C@@](C)(CC[C@@H](O)[C@@]1(C)CO)[C@@H]2CC(=O)Nc1nccs1</t>
+          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2611,40 +2637,66 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>494.64</v>
+        <v>457.48</v>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J32" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>133.67</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
+        <v>122.6</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>CHEMBL1019622</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Inhibition of MAP2K1 at 1 uM</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D1070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B7BC0&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2708,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL517956</t>
+          <t>CHEMBL119385</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2716,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cc1ccc(O)cc1CC[C@@H]1[C@H](O)CC[C@]2(C)[C@@H]([C@H](C)CCCC(C)C)CC[C@@H]12</t>
+          <t>O=c1ncn2nc(Sc3ccc(F)cc3F)ccc2c1-c1c(Cl)cccc1Cl</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Cc1ccc(O)cc1CC[C@H]1[C@@H]2CC[C@H]([C@H](C)CCCC(C)C)[C@@]2(C)CC[C@H]1O</t>
+          <t>O=c1ncn2nc(Sc3ccc(F)cc3F)ccc2c1-c1c(Cl)cccc1Cl</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2683,29 +2735,29 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>400.65</v>
+        <v>436.27</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>40.46</v>
+        <v>47.26</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>IC50</t>
+          <t>Inhibition</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2715,20 +2767,20 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>nM</t>
+          <t>%</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>48900</v>
+        <v>5</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>CHEMBL1926226</t>
+          <t>CHEMBL2027420</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>Inhibition of wild type human MEK1</t>
+          <t>Inhibition of Mek1 at 2 uM</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -2738,7 +2790,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D2730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5FC0&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2750,7 +2802,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL1235213</t>
+          <t>CHEMBL553</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2758,12 +2810,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CCOc1ccc(Nc2c(C)c(N[C@H]3CCCNC3)nc3ccnn23)cc1</t>
+          <t>C#Cc1cccc(Nc2ncnc3cc(OCCOC)c(OCCOC)cc23)c1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CCOc1ccc(Nc2c(C)c(N[C@H]3CCCNC3)nc3ccnn23)cc1</t>
+          <t>C#Cc1cccc(Nc2ncnc3cc(OCCOC)c(OCCOC)cc23)c1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2777,25 +2829,25 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>366.47</v>
+        <v>393.44</v>
       </c>
       <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>7</v>
+      </c>
+      <c r="J34" t="n">
+        <v>10</v>
+      </c>
+      <c r="K34" t="n">
         <v>3</v>
-      </c>
-      <c r="I34" t="n">
-        <v>6</v>
-      </c>
-      <c r="J34" t="n">
-        <v>6</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4</v>
       </c>
       <c r="L34" t="n">
         <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>75.51000000000001</v>
+        <v>74.73</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2813,16 +2865,16 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>CHEMBL2166398</t>
+          <t>CHEMBL3761586</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>Inhibition of human MEK1 at 10 uM</t>
+          <t>Inhibition of MAP2K1 (unknown origin) at 500 nM</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -2832,7 +2884,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D17E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B6810&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2926,7 +2978,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D3D80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B7A70&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -3020,104 +3072,10 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D1620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4A50&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>CHEMBL513330</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Clc1ccc(CNc2nccc(-c3cnn4ncccc34)n2)cc1</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Clc1ccc(CNc2nccc(-c3cnn4ncccc34)n2)cc1</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>336.79</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>4</v>
-      </c>
-      <c r="K37" t="n">
-        <v>4</v>
-      </c>
-      <c r="L37" t="n">
-        <v>4</v>
-      </c>
-      <c r="M37" t="n">
-        <v>68</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>CHEMBL1962207</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MEK1 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9D1F50&gt;</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
         <is>
           <t>G2</t>
         </is>
